--- a/public/OvertimeData/template-spkl-rev (5).xlsx
+++ b/public/OvertimeData/template-spkl-rev (5).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cut Putri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A05F451-3CB0-374B-A633-9FA8BD5DB187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EAFADE-6F24-4F6E-9B9A-2AE5F0E9F3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="14">
   <si>
     <t>No</t>
   </si>
@@ -54,17 +54,26 @@
     <t>Masuk</t>
   </si>
   <si>
-    <t>EN-4-095</t>
-  </si>
-  <si>
-    <t>3.5</t>
+    <t>00009</t>
+  </si>
+  <si>
+    <t>00036</t>
+  </si>
+  <si>
+    <t>00037</t>
+  </si>
+  <si>
+    <t>00004</t>
+  </si>
+  <si>
+    <t>00048</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -82,22 +91,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -156,9 +149,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -171,29 +163,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -453,33 +446,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" customWidth="1"/>
-    <col min="12" max="12" width="24.1640625" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" customWidth="1"/>
-    <col min="19" max="19" width="10.5" customWidth="1"/>
-    <col min="20" max="20" width="11.5" customWidth="1"/>
-    <col min="21" max="21" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,106 +495,510 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7">
+        <v>20005</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>20006</v>
+      </c>
+      <c r="C3" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10">
-        <v>45643</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="C4" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>20024</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>20012</v>
+      </c>
+      <c r="C6" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>20009</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>20013</v>
+      </c>
+      <c r="C8" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>20007</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>20010</v>
+      </c>
+      <c r="C10" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="7"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C10" s="9"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D16" s="9"/>
+      <c r="B11" s="8">
+        <v>20008</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>20025</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <v>20017</v>
+      </c>
+      <c r="C14" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8">
+        <v>20021</v>
+      </c>
+      <c r="C16" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <v>20016</v>
+      </c>
+      <c r="C17" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8">
+        <v>20020</v>
+      </c>
+      <c r="C18" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8">
+        <v>20011</v>
+      </c>
+      <c r="C19" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8">
+        <v>20014</v>
+      </c>
+      <c r="C20" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8">
+        <v>20002</v>
+      </c>
+      <c r="C21" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8">
+        <v>20015</v>
+      </c>
+      <c r="C22" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="8">
+        <v>3</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="8">
+        <v>3</v>
+      </c>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8">
+        <v>20023</v>
+      </c>
+      <c r="C25" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8">
+        <v>20004</v>
+      </c>
+      <c r="C26" s="6">
+        <v>45768</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="8">
+        <v>3</v>
+      </c>
+      <c r="G26" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
